--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150250.3255478752</v>
+        <v>145576.6908058879</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7758670.800307884</v>
+        <v>7758670.80030788</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4639941.489717235</v>
+        <v>4639941.489717236</v>
       </c>
     </row>
     <row r="11">
@@ -1135,7 +1135,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>97.39880320982834</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796776</v>
       </c>
       <c r="T8" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>112.743675009252</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>55.90716612633478</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -1223,7 +1223,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>33.06526957460876</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.05514816323312</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616408</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>32.49351958706873</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>149.6157531058528</v>
+        <v>241.7079225634043</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T12" t="n">
-        <v>124.830639573104</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U12" t="n">
         <v>174.5071388043578</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>5.033780699103863</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>238.8999898778415</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>169.0012459373939</v>
+        <v>224.285978493914</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.52738940623966</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
         <v>31.62322353306971</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.49107235181526</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>12.99065215615417</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>204.8426041147492</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>159.0766607357459</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -1903,10 +1903,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>116.4173334603555</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>67.80121722125776</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>289.0012590013212</v>
       </c>
       <c r="H20" t="n">
-        <v>155.2888078785978</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2222,7 +2222,7 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W21" t="n">
-        <v>183.4695267241379</v>
+        <v>183.4695267241386</v>
       </c>
       <c r="X21" t="n">
         <v>153.3187614035088</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>43.84851090718132</v>
+        <v>77.40984892467314</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>319.815158914369</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>196.0791627727791</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>125.1495157971205</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>48.02307204106965</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>185.6008941282116</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>232.1938103661629</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>34.51516921304759</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>131.884229727403</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>404.3817318844251</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -2854,10 +2854,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>347.3207662723232</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>112.8460249915277</v>
       </c>
       <c r="U31" t="n">
-        <v>167.1356617339842</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>316.352465252735</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>65.45709821928079</v>
       </c>
     </row>
     <row r="33">
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>47.6104437383813</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.69870921092682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>222.7291209988129</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>29.17160265248908</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>45.30544726080559</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>5.033780699103743</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>205.5932749700209</v>
+        <v>187.4450760336518</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>108.2212075726265</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9089346189513</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>118.8995913862122</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -3802,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>113.0388466812663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>46.18189662745586</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>138.9444258687277</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3982,19 +3982,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>397.9839298926909</v>
       </c>
       <c r="X44" t="n">
-        <v>146.6753150960243</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>46.18189662745591</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>47.95240000343527</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>313.6268678108331</v>
+        <v>129.0595287564099</v>
       </c>
       <c r="C8" t="n">
-        <v>215.2442383059559</v>
+        <v>94.95745998023725</v>
       </c>
       <c r="D8" t="n">
-        <v>183.3748575208045</v>
+        <v>63.08807919508583</v>
       </c>
       <c r="E8" t="n">
-        <v>153.6405167195038</v>
+        <v>33.35373839378506</v>
       </c>
       <c r="F8" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="G8" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585586</v>
+        <v>23.57954741585563</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558061</v>
+        <v>55.41632306558021</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318075</v>
+        <v>103.1313969318068</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183102</v>
+        <v>162.3261653183092</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590941</v>
+        <v>228.1917507590927</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326594</v>
+        <v>295.1231102326575</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336439</v>
+        <v>358.3244950336417</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455687</v>
+        <v>412.2654147455662</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245032</v>
+        <v>452.7727990245004</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698458</v>
+        <v>476.3356421698429</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698458</v>
+        <v>401.4050834648249</v>
       </c>
       <c r="T8" t="n">
-        <v>356.0488638441271</v>
+        <v>401.4050834648249</v>
       </c>
       <c r="U8" t="n">
-        <v>356.0488638441271</v>
+        <v>281.118305139107</v>
       </c>
       <c r="V8" t="n">
-        <v>356.0488638441271</v>
+        <v>281.118305139107</v>
       </c>
       <c r="W8" t="n">
-        <v>355.2338132955645</v>
+        <v>280.3032545905443</v>
       </c>
       <c r="X8" t="n">
-        <v>340.1317539152793</v>
+        <v>265.2011952102591</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.8860342553368</v>
+        <v>151.3186952009136</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>338.593139729824</v>
+        <v>305.1938775332476</v>
       </c>
       <c r="C9" t="n">
-        <v>282.1212547537283</v>
+        <v>198.7374163698899</v>
       </c>
       <c r="D9" t="n">
-        <v>187.0309659002816</v>
+        <v>103.6471275164431</v>
       </c>
       <c r="E9" t="n">
-        <v>92.91055122723529</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="I9" t="n">
-        <v>16.4367847511469</v>
+        <v>16.4367847511468</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437524</v>
+        <v>35.39855022437501</v>
       </c>
       <c r="K9" t="n">
-        <v>67.8072276036913</v>
+        <v>67.80722760369089</v>
       </c>
       <c r="L9" t="n">
-        <v>111.3846938193809</v>
+        <v>111.3846938193802</v>
       </c>
       <c r="M9" t="n">
-        <v>162.237541476797</v>
+        <v>162.237541476796</v>
       </c>
       <c r="N9" t="n">
-        <v>214.436312694334</v>
+        <v>214.4363126943328</v>
       </c>
       <c r="O9" t="n">
-        <v>262.187990500667</v>
+        <v>262.1879905006654</v>
       </c>
       <c r="P9" t="n">
-        <v>300.5129218025292</v>
+        <v>300.5129218025275</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.1321234335044</v>
+        <v>326.1321234335026</v>
       </c>
       <c r="R9" t="n">
-        <v>338.593139729824</v>
+        <v>338.5931397298221</v>
       </c>
       <c r="S9" t="n">
-        <v>338.593139729824</v>
+        <v>338.5931397298221</v>
       </c>
       <c r="T9" t="n">
-        <v>338.593139729824</v>
+        <v>338.5931397298221</v>
       </c>
       <c r="U9" t="n">
-        <v>338.593139729824</v>
+        <v>338.5931397298221</v>
       </c>
       <c r="V9" t="n">
-        <v>338.593139729824</v>
+        <v>305.1938775332476</v>
       </c>
       <c r="W9" t="n">
-        <v>338.593139729824</v>
+        <v>305.1938775332476</v>
       </c>
       <c r="X9" t="n">
-        <v>338.593139729824</v>
+        <v>305.1938775332476</v>
       </c>
       <c r="Y9" t="n">
-        <v>338.593139729824</v>
+        <v>305.1938775332476</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642519</v>
+        <v>21.42271513642506</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97150121137715</v>
+        <v>40.9715012113769</v>
       </c>
       <c r="L10" t="n">
-        <v>65.98721697583446</v>
+        <v>65.98721697583406</v>
       </c>
       <c r="M10" t="n">
-        <v>92.36278178728961</v>
+        <v>92.36278178728902</v>
       </c>
       <c r="N10" t="n">
-        <v>118.1111946198144</v>
+        <v>118.1111946198136</v>
       </c>
       <c r="O10" t="n">
-        <v>141.8940213720329</v>
+        <v>141.8940213720321</v>
       </c>
       <c r="P10" t="n">
-        <v>162.2443382688374</v>
+        <v>162.2443382688364</v>
       </c>
       <c r="Q10" t="n">
-        <v>176.333842849149</v>
+        <v>176.3338428491479</v>
       </c>
       <c r="R10" t="n">
-        <v>176.333842849149</v>
+        <v>162.6352281257498</v>
       </c>
       <c r="S10" t="n">
-        <v>176.333842849149</v>
+        <v>162.6352281257498</v>
       </c>
       <c r="T10" t="n">
-        <v>176.333842849149</v>
+        <v>162.6352281257498</v>
       </c>
       <c r="U10" t="n">
-        <v>176.333842849149</v>
+        <v>129.8134911691148</v>
       </c>
       <c r="V10" t="n">
-        <v>176.333842849149</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="W10" t="n">
-        <v>176.333842849149</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="X10" t="n">
-        <v>176.333842849149</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="Y10" t="n">
-        <v>176.333842849149</v>
+        <v>9.526712843396858</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.028006962829</v>
+        <v>1422.719694168253</v>
       </c>
       <c r="C11" t="n">
-        <v>1495.885534146253</v>
+        <v>1422.719694168253</v>
       </c>
       <c r="D11" t="n">
-        <v>1059.975749320697</v>
+        <v>1422.719694168253</v>
       </c>
       <c r="E11" t="n">
-        <v>626.2010044789922</v>
+        <v>988.9449493265479</v>
       </c>
       <c r="F11" t="n">
-        <v>198.3335748882</v>
+        <v>561.0775197357557</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.324927422802</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>930.5806015906849</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>847.1967632068465</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>762.8256627965034</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>730.8830127630996</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R12" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S12" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T12" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U12" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V12" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1517.87440598441</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="C13" t="n">
-        <v>1517.87440598441</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="D13" t="n">
-        <v>1517.87440598441</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M13" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N13" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T13" t="n">
-        <v>2355.242950478945</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U13" t="n">
-        <v>2076.856318527688</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.900810398119</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="W13" t="n">
-        <v>1517.87440598441</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="X13" t="n">
-        <v>1517.87440598441</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="Y13" t="n">
-        <v>1517.87440598441</v>
+        <v>216.9645552982175</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1525.741883262483</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="C14" t="n">
-        <v>1087.599410445906</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="D14" t="n">
-        <v>651.6896256203504</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="E14" t="n">
-        <v>217.9148807786456</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="F14" t="n">
-        <v>217.9148807786456</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="G14" t="n">
-        <v>217.9148807786456</v>
+        <v>273.7580449771507</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X14" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y14" t="n">
-        <v>1952.04145374739</v>
+        <v>673.2607362976736</v>
       </c>
     </row>
     <row r="15">
@@ -5336,16 +5336,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.20655154895474</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C16" t="n">
-        <v>47.20655154895474</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>47.20655154895474</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
         <v>47.20655154895474</v>
@@ -5463,25 +5463,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T16" t="n">
-        <v>889.6597230122813</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="U16" t="n">
-        <v>889.6597230122813</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="V16" t="n">
-        <v>602.7042148827118</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="W16" t="n">
-        <v>330.6778104690033</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="X16" t="n">
-        <v>330.6778104690033</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.2581397831116</v>
+        <v>732.1113136517137</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>254.1182728769843</v>
+        <v>635.7574768324197</v>
       </c>
       <c r="C17" t="n">
-        <v>254.1182728769843</v>
+        <v>635.7574768324197</v>
       </c>
       <c r="D17" t="n">
-        <v>254.1182728769843</v>
+        <v>635.7574768324197</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>635.7574768324197</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>207.8900472416274</v>
       </c>
       <c r="G17" t="n">
         <v>47.20655154895474</v>
@@ -5512,7 +5512,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
         <v>276.0532770435809</v>
@@ -5521,7 +5521,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U17" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V17" t="n">
-        <v>1486.402314586987</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W17" t="n">
-        <v>1081.54685999802</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X17" t="n">
-        <v>662.4043965773309</v>
+        <v>1470.343171017674</v>
       </c>
       <c r="Y17" t="n">
-        <v>254.1182728769843</v>
+        <v>1062.057047317327</v>
       </c>
     </row>
     <row r="18">
@@ -5573,16 +5573,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330.6778104690033</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="C19" t="n">
-        <v>330.6778104690033</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="D19" t="n">
-        <v>164.799817670526</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E19" t="n">
-        <v>164.799817670526</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>164.799817670526</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G19" t="n">
         <v>47.20655154895474</v>
@@ -5700,25 +5700,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T19" t="n">
-        <v>889.6597230122813</v>
+        <v>676.7471065152454</v>
       </c>
       <c r="U19" t="n">
-        <v>889.6597230122813</v>
+        <v>676.7471065152454</v>
       </c>
       <c r="V19" t="n">
-        <v>602.7042148827118</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="W19" t="n">
-        <v>330.6778104690033</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="X19" t="n">
-        <v>330.6778104690033</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="Y19" t="n">
-        <v>330.6778104690033</v>
+        <v>389.7915983856759</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1078.11619088664</v>
+        <v>339.1270151866529</v>
       </c>
       <c r="C20" t="n">
-        <v>639.9737180700636</v>
+        <v>339.1270151866529</v>
       </c>
       <c r="D20" t="n">
-        <v>204.0639332445081</v>
+        <v>339.1270151866529</v>
       </c>
       <c r="E20" t="n">
-        <v>204.0639332445081</v>
+        <v>339.1270151866529</v>
       </c>
       <c r="F20" t="n">
-        <v>204.0639332445081</v>
+        <v>339.1270151866529</v>
       </c>
       <c r="G20" t="n">
-        <v>204.0639332445081</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895474</v>
@@ -5752,16 +5752,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.402314586987</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W20" t="n">
-        <v>1486.402314586987</v>
+        <v>1592.855172792597</v>
       </c>
       <c r="X20" t="n">
-        <v>1486.402314586987</v>
+        <v>1173.712709371907</v>
       </c>
       <c r="Y20" t="n">
-        <v>1078.11619088664</v>
+        <v>765.4265856715607</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5852,22 +5852,22 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R21" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233593</v>
       </c>
       <c r="S21" t="n">
-        <v>1632.030085633326</v>
+        <v>1632.030085633327</v>
       </c>
       <c r="T21" t="n">
-        <v>1505.938530508979</v>
+        <v>1505.93853050898</v>
       </c>
       <c r="U21" t="n">
-        <v>1329.66869333286</v>
+        <v>1329.668693332861</v>
       </c>
       <c r="V21" t="n">
-        <v>1130.551175394859</v>
+        <v>1130.55117539486</v>
       </c>
       <c r="W21" t="n">
         <v>945.2284211280532</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>558.4127897239429</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="C22" t="n">
-        <v>558.4127897239429</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="D22" t="n">
-        <v>558.4127897239429</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E22" t="n">
         <v>388.6547859746801</v>
@@ -5913,49 +5913,49 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L22" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M22" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N22" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O22" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P22" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q22" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R22" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="S22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="T22" t="n">
-        <v>845.3682978535123</v>
+        <v>667.0414179259371</v>
       </c>
       <c r="U22" t="n">
-        <v>845.3682978535123</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="V22" t="n">
-        <v>558.4127897239429</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="W22" t="n">
-        <v>558.4127897239429</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="X22" t="n">
-        <v>558.4127897239429</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.4127897239429</v>
+        <v>388.6547859746801</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1349.126238781879</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="C23" t="n">
-        <v>910.9837659653025</v>
+        <v>639.9737180700636</v>
       </c>
       <c r="D23" t="n">
-        <v>475.073981139747</v>
+        <v>639.9737180700636</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>639.9737180700636</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>639.9737180700636</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
         <v>276.0532770435809</v>
@@ -6010,31 +6010,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2162.267817071192</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>2162.267817071192</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W23" t="n">
-        <v>1757.412362482226</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X23" t="n">
-        <v>1757.412362482226</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y23" t="n">
-        <v>1349.126238781879</v>
+        <v>1078.11619088664</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="C25" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="D25" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
         <v>47.20655154895474</v>
@@ -6174,25 +6174,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>745.2331845165158</v>
+        <v>763.2460706919576</v>
       </c>
       <c r="T25" t="n">
-        <v>745.2331845165158</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="U25" t="n">
-        <v>696.7250309396778</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="V25" t="n">
-        <v>696.7250309396778</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="W25" t="n">
-        <v>696.7250309396778</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="X25" t="n">
-        <v>451.3332762730903</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="Y25" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1614.480062263097</v>
+        <v>1106.599419841793</v>
       </c>
       <c r="C26" t="n">
-        <v>1614.480062263097</v>
+        <v>668.4569470252168</v>
       </c>
       <c r="D26" t="n">
-        <v>1178.570277437541</v>
+        <v>668.4569470252168</v>
       </c>
       <c r="E26" t="n">
-        <v>744.7955325958366</v>
+        <v>234.6822021835119</v>
       </c>
       <c r="F26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435807</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228017</v>
+        <v>512.324927422802</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V26" t="n">
-        <v>1614.480062263097</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W26" t="n">
-        <v>1614.480062263097</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X26" t="n">
-        <v>1614.480062263097</v>
+        <v>1941.185114027048</v>
       </c>
       <c r="Y26" t="n">
-        <v>1614.480062263097</v>
+        <v>1532.898990326701</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.20655154895474</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="C28" t="n">
-        <v>47.20655154895474</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="D28" t="n">
-        <v>47.20655154895474</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895474</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895474</v>
@@ -6411,25 +6411,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>756.4433293482379</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T28" t="n">
-        <v>756.4433293482379</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U28" t="n">
-        <v>756.4433293482379</v>
+        <v>369.0258669644309</v>
       </c>
       <c r="V28" t="n">
-        <v>756.4433293482379</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="W28" t="n">
-        <v>484.4169249345294</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="X28" t="n">
-        <v>239.0251702679419</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="Y28" t="n">
-        <v>239.0251702679419</v>
+        <v>82.07035883486139</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>716.4307943255671</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="C29" t="n">
-        <v>716.4307943255671</v>
+        <v>855.1756387123312</v>
       </c>
       <c r="D29" t="n">
-        <v>716.4307943255671</v>
+        <v>855.1756387123312</v>
       </c>
       <c r="E29" t="n">
-        <v>716.4307943255671</v>
+        <v>855.1756387123312</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
@@ -6493,22 +6493,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.402314586987</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W29" t="n">
-        <v>1135.573257746256</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X29" t="n">
-        <v>716.4307943255671</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="Y29" t="n">
-        <v>716.4307943255671</v>
+        <v>1293.318111528908</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="D31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895474</v>
@@ -6651,22 +6651,22 @@
         <v>745.2331845165158</v>
       </c>
       <c r="T31" t="n">
-        <v>502.9859604199224</v>
+        <v>631.2473006866899</v>
       </c>
       <c r="U31" t="n">
-        <v>334.1620596785243</v>
+        <v>631.2473006866899</v>
       </c>
       <c r="V31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="W31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="X31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1934.028006962829</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.028006962829</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>1498.118222137274</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>1064.343477295569</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>636.4760477047766</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W32" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X32" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y32" t="n">
-        <v>2360.327577447737</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1517.87440598441</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="C34" t="n">
-        <v>1517.87440598441</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="D34" t="n">
-        <v>1517.87440598441</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="E34" t="n">
-        <v>1517.87440598441</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F34" t="n">
-        <v>1517.87440598441</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G34" t="n">
-        <v>1517.87440598441</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
-        <v>1517.87440598441</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T34" t="n">
-        <v>2360.327577447737</v>
+        <v>697.1418272050196</v>
       </c>
       <c r="U34" t="n">
-        <v>2360.327577447737</v>
+        <v>697.1418272050196</v>
       </c>
       <c r="V34" t="n">
-        <v>2073.372069318168</v>
+        <v>697.1418272050196</v>
       </c>
       <c r="W34" t="n">
-        <v>1801.345664904459</v>
+        <v>697.1418272050196</v>
       </c>
       <c r="X34" t="n">
-        <v>1555.953910237872</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="Y34" t="n">
-        <v>1517.87440598441</v>
+        <v>451.7500725384321</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>914.3179809915988</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C35" t="n">
-        <v>476.1755081750221</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D35" t="n">
-        <v>476.1755081750221</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E35" t="n">
-        <v>476.1755081750221</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F35" t="n">
-        <v>476.1755081750221</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G35" t="n">
-        <v>76.67281685449927</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
@@ -6955,7 +6955,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131647</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131647</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>1745.473006065473</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W35" t="n">
-        <v>1340.617551476507</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X35" t="n">
-        <v>1340.617551476507</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="Y35" t="n">
-        <v>1340.617551476507</v>
+        <v>1144.102679307047</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043086</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.0207442491004</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="C37" t="n">
-        <v>402.0207442491004</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="D37" t="n">
-        <v>402.0207442491004</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="E37" t="n">
-        <v>402.0207442491004</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="F37" t="n">
-        <v>225.3136902108566</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
         <v>326.783117436994</v>
@@ -7125,22 +7125,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U37" t="n">
-        <v>647.4124989156879</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V37" t="n">
-        <v>647.4124989156879</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W37" t="n">
-        <v>647.4124989156879</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="X37" t="n">
-        <v>402.0207442491004</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="Y37" t="n">
-        <v>402.0207442491004</v>
+        <v>52.2911785177464</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>913.2164539563237</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C38" t="n">
-        <v>475.073981139747</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D38" t="n">
-        <v>475.073981139747</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
         <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J38" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7195,7 +7195,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
@@ -7204,22 +7204,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2152.657602730545</v>
+        <v>2170.989116807685</v>
       </c>
       <c r="U38" t="n">
-        <v>2152.657602730545</v>
+        <v>2170.989116807685</v>
       </c>
       <c r="V38" t="n">
-        <v>2152.657602730545</v>
+        <v>2170.989116807685</v>
       </c>
       <c r="W38" t="n">
-        <v>1747.802148141578</v>
+        <v>1766.133662218718</v>
       </c>
       <c r="X38" t="n">
-        <v>1747.802148141578</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="Y38" t="n">
-        <v>1339.516024441231</v>
+        <v>1346.991198798029</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1864.339463771917</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="C40" t="n">
-        <v>1864.339463771917</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="D40" t="n">
-        <v>1864.339463771917</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E40" t="n">
-        <v>1694.581460022654</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F40" t="n">
-        <v>1517.874405984411</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>1517.874405984411</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>1517.874405984411</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>1517.874405984411</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>1576.780069686594</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>1673.580170254152</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.45097187245</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014869</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.320157362631</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.85648477097</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U40" t="n">
-        <v>1864.339463771917</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V40" t="n">
-        <v>1864.339463771917</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="W40" t="n">
-        <v>1864.339463771917</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="X40" t="n">
-        <v>1864.339463771917</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="Y40" t="n">
-        <v>1864.339463771917</v>
+        <v>388.6547859746801</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>752.8378878305998</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="C41" t="n">
-        <v>752.8378878305998</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="D41" t="n">
-        <v>316.9281030050443</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E41" t="n">
-        <v>316.9281030050443</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
         <v>316.9281030050443</v>
@@ -7408,7 +7408,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435809</v>
@@ -7417,7 +7417,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,7 +7432,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
@@ -7450,13 +7450,13 @@
         <v>1698.173566117875</v>
       </c>
       <c r="W41" t="n">
-        <v>1293.318111528908</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X41" t="n">
-        <v>1293.318111528908</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1179.137458315508</v>
+        <v>1698.173566117875</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1564.522786416184</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="C43" t="n">
-        <v>1564.522786416184</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="D43" t="n">
-        <v>1564.522786416184</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E43" t="n">
-        <v>1564.522786416184</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F43" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G43" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N43" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T43" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U43" t="n">
-        <v>2081.94094549648</v>
+        <v>749.3118180943745</v>
       </c>
       <c r="V43" t="n">
-        <v>2081.94094549648</v>
+        <v>462.356309964805</v>
       </c>
       <c r="W43" t="n">
-        <v>1809.914541082771</v>
+        <v>462.356309964805</v>
       </c>
       <c r="X43" t="n">
-        <v>1564.522786416184</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="Y43" t="n">
-        <v>1564.522786416184</v>
+        <v>216.9645552982175</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.483051967699</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C44" t="n">
-        <v>1152.340579151123</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D44" t="n">
-        <v>716.4307943255671</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7678,22 +7678,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2101.256885969251</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V44" t="n">
-        <v>1738.639935903077</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W44" t="n">
-        <v>1738.639935903077</v>
+        <v>1746.552356328272</v>
       </c>
       <c r="X44" t="n">
-        <v>1590.483051967699</v>
+        <v>1327.409892907583</v>
       </c>
       <c r="Y44" t="n">
-        <v>1590.483051967699</v>
+        <v>919.1237692072363</v>
       </c>
     </row>
     <row r="45">
@@ -7709,22 +7709,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.8549319807284</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="C46" t="n">
-        <v>47.20655154895474</v>
+        <v>430.1425033659367</v>
       </c>
       <c r="D46" t="n">
-        <v>47.20655154895474</v>
+        <v>430.1425033659367</v>
       </c>
       <c r="E46" t="n">
-        <v>47.20655154895474</v>
+        <v>260.384499616674</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>260.384499616674</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>95.64331922919237</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
@@ -7839,19 +7839,19 @@
         <v>889.6597230122813</v>
       </c>
       <c r="U46" t="n">
-        <v>611.2730910610244</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V46" t="n">
-        <v>611.2730910610244</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="W46" t="n">
-        <v>339.2466866473159</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="X46" t="n">
-        <v>93.8549319807284</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.8549319807284</v>
+        <v>602.7042148827118</v>
       </c>
     </row>
   </sheetData>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>245.8919113014648</v>
+        <v>153.7997418439133</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23424,7 +23424,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>234.7909711565236</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>30.40615049172985</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>98.02309000413473</v>
+        <v>42.73835744761462</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.409360179982</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>226.8340996994733</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>224.5943932785385</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>236.4310036715716</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>46.67643512325125</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>172.0235346343697</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>106.5064054059964</v>
       </c>
       <c r="H20" t="n">
-        <v>111.7355280629309</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>195.9762409484461</v>
+        <v>162.4149029309543</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>75.69250549294856</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>60.40082179092209</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>17.83275731368731</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>227.5796935906748</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -24429,10 +24429,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>237.9878611666727</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>126.7969701993488</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -24618,7 +24618,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>96.50545080142967</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>11.09804338340478</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,13 +24691,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>19.20702341045927</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>53.48613377075378</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24852,10 +24852,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>126.9787268640997</v>
       </c>
       <c r="U31" t="n">
-        <v>108.4671038977602</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>79.15519915458259</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>338.7461642440623</v>
       </c>
     </row>
     <row r="33">
@@ -25086,16 +25086,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>192.2143081172461</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>187.446764768106</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>199.3074537812458</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>237.8527332890396</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,13 +25323,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>117.7883213228012</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>125.9868393153735</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25365,19 +25365,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>4.060264045557966</v>
+        <v>22.20846298192714</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25557,13 +25557,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>167.3815580591179</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>57.39720575062006</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>312.6510955910877</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>291.1644157820768</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25794,10 +25794,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>128.7580868704055</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -25842,13 +25842,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>136.6583397630167</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>2.822970150386141</v>
       </c>
       <c r="X44" t="n">
-        <v>268.2757236904581</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>124.6541977741514</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>83.068220011042</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26079,16 +26079,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>328591.1873967915</v>
+        <v>328591.1873967916</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>328591.1873967916</v>
+        <v>328591.1873967915</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>328591.1873967917</v>
+        <v>328591.1873967916</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>328591.1873967916</v>
+        <v>328591.1873967915</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300946.1639116303</v>
+        <v>300946.1639116302</v>
       </c>
       <c r="C2" t="n">
         <v>300946.1639116303</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
         <v>160799.9427686428</v>
@@ -26328,13 +26328,13 @@
         <v>160799.9427686427</v>
       </c>
       <c r="G2" t="n">
+        <v>160799.9427686427</v>
+      </c>
+      <c r="H2" t="n">
         <v>160799.9427686428</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>160799.9427686427</v>
-      </c>
-      <c r="I2" t="n">
-        <v>160799.9427686428</v>
       </c>
       <c r="J2" t="n">
         <v>160799.9427686427</v>
@@ -26349,7 +26349,7 @@
         <v>160799.9427686428</v>
       </c>
       <c r="N2" t="n">
-        <v>160799.9427686428</v>
+        <v>160799.9427686427</v>
       </c>
       <c r="O2" t="n">
         <v>160799.9427686428</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730584</v>
+        <v>117708.4675730577</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180438</v>
+        <v>439858.2450180444</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310211</v>
+        <v>30139.06600310193</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597479</v>
+        <v>117374.5815597481</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>273863.0295154521</v>
+        <v>273863.0295154523</v>
       </c>
       <c r="E4" t="n">
+        <v>414.2905444231689</v>
+      </c>
+      <c r="F4" t="n">
         <v>414.290544423169</v>
       </c>
-      <c r="F4" t="n">
-        <v>414.2905444231689</v>
-      </c>
       <c r="G4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="H4" t="n">
         <v>414.290544423169</v>
       </c>
       <c r="I4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="J4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="K4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="L4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="M4" t="n">
         <v>414.290544423169</v>
       </c>
       <c r="N4" t="n">
+        <v>414.290544423169</v>
+      </c>
+      <c r="O4" t="n">
         <v>414.2905444231689</v>
-      </c>
-      <c r="O4" t="n">
-        <v>414.290544423169</v>
       </c>
       <c r="P4" t="n">
         <v>414.2905444231689</v>
@@ -26475,7 +26475,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.5622723924</v>
+        <v>42922.56227239234</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963782</v>
@@ -26502,16 +26502,16 @@
         <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31412.15240020253</v>
+        <v>-31444.05911770426</v>
       </c>
       <c r="C6" t="n">
-        <v>-31412.15240020253</v>
+        <v>-31444.05911770415</v>
       </c>
       <c r="D6" t="n">
-        <v>-126209.350423918</v>
+        <v>-126209.3504239175</v>
       </c>
       <c r="E6" t="n">
-        <v>-325523.674003462</v>
+        <v>-326164.9121172379</v>
       </c>
       <c r="F6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
       <c r="G6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
       <c r="H6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
       <c r="I6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008063</v>
       </c>
       <c r="J6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
       <c r="K6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008063</v>
       </c>
       <c r="L6" t="n">
-        <v>84195.50501147963</v>
+        <v>83554.26689770439</v>
       </c>
       <c r="M6" t="n">
-        <v>-3040.010545166151</v>
+        <v>-3681.248658941704</v>
       </c>
       <c r="N6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
       <c r="O6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
       <c r="P6" t="n">
-        <v>114334.5710145818</v>
+        <v>113693.3329008064</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480516</v>
+        <v>94.25048217480459</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
@@ -26755,7 +26755,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26795,7 +26795,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="E4" t="n">
         <v>590.0818943619342</v>
@@ -26822,16 +26822,16 @@
         <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480516</v>
+        <v>94.25048217480459</v>
       </c>
       <c r="E3" t="n">
-        <v>372.451445918416</v>
+        <v>372.4514459184166</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194728</v>
+        <v>470.9979838194735</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194729</v>
+        <v>470.9979838194735</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194728</v>
+        <v>470.9979838194735</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>336.3622448785826</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>163.2745696021304</v>
+        <v>282.3584801445919</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.1812531179677</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>97.12402527515913</v>
+        <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>256.599767943293</v>
+        <v>137.5158574008323</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>291.4595874540911</v>
       </c>
     </row>
     <row r="9">
@@ -27934,7 +27934,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>49.48473042538935</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27943,13 +27943,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.3603752680919</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656962</v>
+        <v>59.05530966656964</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
@@ -27991,7 +27991,7 @@
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>164.0610731840119</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.8452843685641</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>51.75218385914587</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28031,7 +28031,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742788</v>
+        <v>82.6621924374279</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616403</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
@@ -28067,10 +28067,10 @@
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6394002001954</v>
+        <v>243.1458806131266</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>165.0020425058131</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529852</v>
+        <v>0.378896410752983</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624011</v>
+        <v>3.880372866623988</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555448</v>
+        <v>14.60740387555439</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214621</v>
+        <v>32.15835924214602</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932009</v>
+        <v>48.1970443093198</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990178</v>
+        <v>59.79269533990141</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463017</v>
+        <v>66.53089438462978</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116821</v>
+        <v>67.60743381168169</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725709</v>
+        <v>63.83978262725671</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679276</v>
+        <v>54.48577748679244</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670147</v>
+        <v>40.91654977670122</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196223</v>
+        <v>23.80085166196209</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033661</v>
+        <v>8.634101960033608</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071194</v>
+        <v>1.658619038071184</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023882</v>
+        <v>0.03031171286023863</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250526</v>
+        <v>0.2027274522250514</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857745</v>
+        <v>1.957920393857733</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888874</v>
+        <v>6.979870613888831</v>
       </c>
       <c r="J9" t="n">
-        <v>19.1532984578064</v>
+        <v>19.15329845780628</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688492</v>
+        <v>32.73603775688473</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211066</v>
+        <v>44.0176426421104</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852688</v>
+        <v>51.3665127852685</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286577</v>
+        <v>52.72603153286545</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619486</v>
+        <v>48.23401798619457</v>
       </c>
       <c r="P9" t="n">
-        <v>38.7120518200629</v>
+        <v>38.71205182006267</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542953</v>
+        <v>25.87798144542937</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779757</v>
+        <v>12.58688514779749</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531128</v>
+        <v>3.765573509531106</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457162</v>
+        <v>0.8171338973457112</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322715</v>
+        <v>0.01333733238322707</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889929</v>
+        <v>0.1699598858889919</v>
       </c>
       <c r="H10" t="n">
-        <v>1.51109789454032</v>
+        <v>1.511097894540311</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643533</v>
+        <v>5.111157295643502</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323518</v>
+        <v>12.01616393235172</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055753</v>
+        <v>19.74624856055742</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207809</v>
+        <v>25.26839976207794</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803549</v>
+        <v>26.64198465803533</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063108</v>
+        <v>26.00849781063093</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254733</v>
+        <v>24.02305732547315</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333782</v>
+        <v>20.5558756533377</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839558</v>
+        <v>14.23182280839549</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517806</v>
+        <v>7.64201450551776</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96193728408363</v>
+        <v>2.961937284083612</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075149</v>
+        <v>0.7261922397075105</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308714</v>
+        <v>0.009270539230308657</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -32332,7 +32332,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -32466,13 +32466,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -32481,10 +32481,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917233</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,7 +32800,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -33681,7 +33681,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405469</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>42.75364899065037</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642308</v>
+        <v>14.19478239642299</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214621</v>
+        <v>32.15835924214605</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932009</v>
+        <v>48.19704430931978</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990177</v>
+        <v>59.79269533990143</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463019</v>
+        <v>66.53089438462976</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168209</v>
+        <v>67.60743381168169</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725708</v>
+        <v>63.83978262725674</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679276</v>
+        <v>54.48577748679241</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670146</v>
+        <v>40.91654977670123</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196221</v>
+        <v>23.8008516619621</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888872</v>
+        <v>6.979870613888831</v>
       </c>
       <c r="J9" t="n">
-        <v>19.1532984578064</v>
+        <v>19.15329845780628</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688492</v>
+        <v>32.73603775688473</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211066</v>
+        <v>44.0176426421104</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852688</v>
+        <v>51.3665127852685</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286576</v>
+        <v>52.72603153286545</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619486</v>
+        <v>48.2340179861946</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006287</v>
+        <v>38.7120518200627</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542955</v>
+        <v>25.87798144542938</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779755</v>
+        <v>12.58688514779749</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323518</v>
+        <v>12.01616393235172</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055753</v>
+        <v>19.74624856055742</v>
       </c>
       <c r="L10" t="n">
-        <v>25.2683997620781</v>
+        <v>25.26839976207793</v>
       </c>
       <c r="M10" t="n">
-        <v>26.6419846580355</v>
+        <v>26.64198465803533</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063108</v>
+        <v>26.00849781063093</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547329</v>
+        <v>24.02305732547315</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333784</v>
+        <v>20.55587565333769</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839558</v>
+        <v>14.23182280839549</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35418,16 +35418,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35509,10 +35509,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35655,7 +35655,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35883,13 +35883,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35901,10 +35901,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36199,25 +36199,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -36302,7 +36302,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36366,7 +36366,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
@@ -37068,13 +37068,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,7 +37083,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,13 +37305,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405469</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -37554,7 +37554,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,13 +37779,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,25 +38016,25 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38177,7 +38177,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
